--- a/Users Loads24.xlsx
+++ b/Users Loads24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.183419540262757</v>
+        <v>0.2749205779823979</v>
       </c>
       <c r="C2" t="n">
-        <v>5.056903300421695</v>
+        <v>2.881981698754007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5011681967383975</v>
+        <v>0.2088016455818972</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.319814722552224</v>
+        <v>0.3260152691970545</v>
       </c>
       <c r="C3" t="n">
-        <v>4.328156437977997</v>
+        <v>6.33719018748719</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5743217879299216</v>
+        <v>0.3945801589026732</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.042525691680805</v>
+        <v>1.275325567428684</v>
       </c>
       <c r="C4" t="n">
-        <v>1.7461269844369</v>
+        <v>3.842044191831691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2889110020943797</v>
+        <v>0.07045978138813114</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.56557572739923</v>
+        <v>1.62908504505865</v>
       </c>
       <c r="C5" t="n">
-        <v>2.505122953591758</v>
+        <v>2.702496188146957</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4157051093977057</v>
+        <v>0.2241524684597916</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.87769439411996</v>
+        <v>1.985076448094047</v>
       </c>
       <c r="C6" t="n">
-        <v>8.847797765426586</v>
+        <v>4.438807165878554</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6530292211461959</v>
+        <v>0.3657735860402525</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.62502436467742</v>
+        <v>2.457385991932751</v>
       </c>
       <c r="C7" t="n">
-        <v>3.917551149737495</v>
+        <v>13.72211144734728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2758465684545309</v>
+        <v>0.2419482969600719</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.39870849550995</v>
+        <v>2.89637951235347</v>
       </c>
       <c r="C8" t="n">
-        <v>4.009039127980646</v>
+        <v>11.13485273284664</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5022043195809186</v>
+        <v>0.3861806563606464</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.75400919311594</v>
+        <v>2.97927456270312</v>
       </c>
       <c r="C9" t="n">
-        <v>2.396912419275951</v>
+        <v>4.991383549325825</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2022414552308892</v>
+        <v>0.2633554977179705</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.36010609815517</v>
+        <v>3.107789043744027</v>
       </c>
       <c r="C10" t="n">
-        <v>4.753452532934915</v>
+        <v>8.10671848883548</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7511277468954817</v>
+        <v>0.345793129485624</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17.40846113113602</v>
+        <v>3.243520935946848</v>
       </c>
       <c r="C11" t="n">
-        <v>5.058771623771247</v>
+        <v>2.330479000347624</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7114347320076463</v>
+        <v>0.2922710282462452</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.80034542371254</v>
+        <v>3.79487019514025</v>
       </c>
       <c r="C12" t="n">
-        <v>4.706042415666416</v>
+        <v>8.547341558479127</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4382598167516844</v>
+        <v>0.2607756245161809</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.28874698208618</v>
+        <v>4.041336419921348</v>
       </c>
       <c r="C13" t="n">
-        <v>2.890491841441229</v>
+        <v>2.852445238659999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1904242609960227</v>
+        <v>0.292288338034165</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.34070998351621</v>
+        <v>4.58671963113249</v>
       </c>
       <c r="C14" t="n">
-        <v>1.999828476445032</v>
+        <v>4.936165522848959</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1851038294367505</v>
+        <v>0.3127973327475059</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.54953202697484</v>
+        <v>4.675924875623808</v>
       </c>
       <c r="C15" t="n">
-        <v>1.921476786961863</v>
+        <v>12.51024826643469</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3618410105893683</v>
+        <v>0.2684011473850719</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.60052664355088</v>
+        <v>5.133471129952767</v>
       </c>
       <c r="C16" t="n">
-        <v>3.916770377007688</v>
+        <v>8.382585636784942</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4716360036048692</v>
+        <v>0.6234570703332218</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0079369015089</v>
+        <v>6.217361608471157</v>
       </c>
       <c r="C17" t="n">
-        <v>5.785047456338524</v>
+        <v>5.224270659618935</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5602029551914621</v>
+        <v>0.2493611616158136</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.08962225356892</v>
+        <v>7.223366720710948</v>
       </c>
       <c r="C18" t="n">
-        <v>4.312099692398577</v>
+        <v>11.01177988237037</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2462680487021519</v>
+        <v>0.2027582339733387</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>31.04314059222148</v>
+        <v>7.364891441457543</v>
       </c>
       <c r="C19" t="n">
-        <v>5.109186658526601</v>
+        <v>3.786912332608154</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5518802266415521</v>
+        <v>0.2008419901675366</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>34.87380282541213</v>
+        <v>7.537824515945309</v>
       </c>
       <c r="C20" t="n">
-        <v>3.237219332010783</v>
+        <v>3.31130212160059</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2428120174697222</v>
+        <v>0.2160724407096332</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>37.15570705110356</v>
+        <v>7.75865326990033</v>
       </c>
       <c r="C21" t="n">
-        <v>3.862669796986534</v>
+        <v>3.077466641257758</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4209512470762809</v>
+        <v>0.1279246583138287</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>37.56815576735952</v>
+        <v>8.008684799117404</v>
       </c>
       <c r="C22" t="n">
-        <v>7.376045249683409</v>
+        <v>5.477187324352405</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5732682379592231</v>
+        <v>0.2323641761729731</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>39.29568459861463</v>
+        <v>8.54014605588171</v>
       </c>
       <c r="C23" t="n">
-        <v>2.766395093095991</v>
+        <v>7.477786345633857</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4573286548110418</v>
+        <v>0.2532501654039868</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>43.24216529810008</v>
+        <v>9.252073130337923</v>
       </c>
       <c r="C24" t="n">
-        <v>2.47083270162437</v>
+        <v>2.491953011660593</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1878494363042246</v>
+        <v>0.1869919286998575</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45.64974184827847</v>
+        <v>9.458707312539895</v>
       </c>
       <c r="C25" t="n">
-        <v>3.574897866633396</v>
+        <v>8.592532316541444</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6393631728237688</v>
+        <v>0.4011024695692318</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>45.856432685987</v>
+        <v>9.494391163792793</v>
       </c>
       <c r="C26" t="n">
-        <v>4.383024234928818</v>
+        <v>7.947230132860545</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7336459750343352</v>
+        <v>0.2577766893807528</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>48.04244840842274</v>
+        <v>10.30363159229065</v>
       </c>
       <c r="C27" t="n">
-        <v>4.070947337851008</v>
+        <v>12.06766733643457</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3889992088058099</v>
+        <v>0.3390732880730329</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>48.17530007584856</v>
+        <v>11.99951035618236</v>
       </c>
       <c r="C28" t="n">
-        <v>2.847191944268937</v>
+        <v>3.41425211781011</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4582402442997424</v>
+        <v>0.2334593393524466</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>49.3735028601283</v>
+        <v>14.84269186206271</v>
       </c>
       <c r="C29" t="n">
-        <v>6.767578602925835</v>
+        <v>8.596898472760893</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7420105694884799</v>
+        <v>0.2900875222316898</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>50.5370254669706</v>
+        <v>14.94862700887496</v>
       </c>
       <c r="C30" t="n">
-        <v>4.328459929502973</v>
+        <v>8.074269195490025</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4902303254048523</v>
+        <v>0.2927429983500406</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>51.67359250092414</v>
+        <v>15.13816210114247</v>
       </c>
       <c r="C31" t="n">
-        <v>1.906963666076769</v>
+        <v>7.773280256232384</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3351099539387312</v>
+        <v>0.3273542274808174</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>60.48704598594791</v>
+        <v>15.1470883103714</v>
       </c>
       <c r="C32" t="n">
-        <v>1.918970266443345</v>
+        <v>12.12344290056109</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2475146145068149</v>
+        <v>0.3885852984476902</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>61.10390743778945</v>
+        <v>15.42527954122075</v>
       </c>
       <c r="C33" t="n">
-        <v>2.591137785214472</v>
+        <v>6.933524229491764</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4786711856286439</v>
+        <v>0.2847769024489891</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>62.49498917609292</v>
+        <v>15.70671932513206</v>
       </c>
       <c r="C34" t="n">
-        <v>6.328511395819984</v>
+        <v>6.018244861208522</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6100957279253842</v>
+        <v>0.2458324830868077</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>63.33038642321149</v>
+        <v>15.78428411099428</v>
       </c>
       <c r="C35" t="n">
-        <v>4.087892348226021</v>
+        <v>2.695203369600207</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1902197559062854</v>
+        <v>0.2642498940711304</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>64.7131347977772</v>
+        <v>16.44814156234645</v>
       </c>
       <c r="C36" t="n">
-        <v>7.943812385111998</v>
+        <v>6.822359117134027</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6099469478704997</v>
+        <v>0.2114949123617415</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>72.00344132031243</v>
+        <v>18.02194393570069</v>
       </c>
       <c r="C37" t="n">
-        <v>3.66994584461928</v>
+        <v>8.174157861107801</v>
       </c>
       <c r="D37" t="n">
-        <v>0.544228937155117</v>
+        <v>0.3196734136096417</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>72.1563270834957</v>
+        <v>18.15340081934591</v>
       </c>
       <c r="C38" t="n">
-        <v>5.848877148482824</v>
+        <v>10.46432775664603</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5382732749673103</v>
+        <v>0.2460609665014543</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>74.53865867102952</v>
+        <v>18.72715630380871</v>
       </c>
       <c r="C39" t="n">
-        <v>7.042099756186929</v>
+        <v>9.334177332890546</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6523569049935747</v>
+        <v>0.4371892511604557</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>76.32047137726896</v>
+        <v>19.01041764753979</v>
       </c>
       <c r="C40" t="n">
-        <v>5.943298462392109</v>
+        <v>2.878027192114056</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5443119868516911</v>
+        <v>0.1935493056249721</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>76.5673617061818</v>
+        <v>19.60438543676946</v>
       </c>
       <c r="C41" t="n">
-        <v>5.484234384263214</v>
+        <v>5.553962611188892</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6238614506831857</v>
+        <v>0.4731023205986258</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>77.77850160614778</v>
+        <v>19.65799143607954</v>
       </c>
       <c r="C42" t="n">
-        <v>4.518170102048687</v>
+        <v>4.135888711183788</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1818600168118933</v>
+        <v>0.1556063807404112</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>79.73852993801236</v>
+        <v>19.91770260916214</v>
       </c>
       <c r="C43" t="n">
-        <v>8.085091039632394</v>
+        <v>4.834379512853128</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6190468393536237</v>
+        <v>0.1672445986864247</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83.55977869168639</v>
+        <v>20.13064617036367</v>
       </c>
       <c r="C44" t="n">
-        <v>4.047309402759868</v>
+        <v>9.321383715674044</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5947378949793318</v>
+        <v>0.3686177555378997</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>87.53605697143463</v>
+        <v>20.27112269313631</v>
       </c>
       <c r="C45" t="n">
-        <v>8.029977008470814</v>
+        <v>4.243863425000267</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2347973265389249</v>
+        <v>0.1694589915538566</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>90.20810412196577</v>
+        <v>20.80156950805729</v>
       </c>
       <c r="C46" t="n">
-        <v>6.63551266868795</v>
+        <v>5.433927555862015</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5934735555700703</v>
+        <v>0.4070634840354765</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>90.61693285766979</v>
+        <v>21.43455768771011</v>
       </c>
       <c r="C47" t="n">
-        <v>2.726980970420065</v>
+        <v>9.69602352981043</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6286177087962213</v>
+        <v>0.5203138140011763</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>90.91857771861234</v>
+        <v>21.98139073240272</v>
       </c>
       <c r="C48" t="n">
-        <v>2.815868711194541</v>
+        <v>4.925720219523886</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4548971105614388</v>
+        <v>0.1605814084310552</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>95.03673359113286</v>
+        <v>22.16048326936223</v>
       </c>
       <c r="C49" t="n">
-        <v>3.368394658637951</v>
+        <v>6.813794738210621</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4876009234661989</v>
+        <v>0.3810962019997414</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>95.76832228835592</v>
+        <v>22.25126279641203</v>
       </c>
       <c r="C50" t="n">
-        <v>2.756486108345728</v>
+        <v>5.011042293418779</v>
       </c>
       <c r="D50" t="n">
-        <v>0.299242480411748</v>
+        <v>0.4372041283061622</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>95.83147175974372</v>
+        <v>22.27834769026907</v>
       </c>
       <c r="C51" t="n">
-        <v>3.414273227691979</v>
+        <v>9.040591362230135</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3855845611917774</v>
+        <v>0.3001001246660238</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,1987 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>97.50051755542599</v>
+        <v>22.60691873414442</v>
       </c>
       <c r="C52" t="n">
-        <v>3.27808123946257</v>
+        <v>8.720538939040924</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2368871396015571</v>
+        <v>0.3604027701468863</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>22.84530426176181</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.486368335393664</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.3604908203087758</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>22.86812109704785</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.963225014016833</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.197873231816992</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>23.12690468560456</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10.54645778997467</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.3894447411460328</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>23.60124662332657</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5.697335441497342</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4815396181032167</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>24.46534821691187</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6.035615476894904</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.3519622522963123</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>24.56269209411</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.808425307512733</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.09767544499537723</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>24.89466183958938</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6.992389772935521</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.6431913940980283</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>25.44815005679301</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5.034643591341763</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5553422951806062</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>25.63926399559619</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.670327920043245</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2209734833294667</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>25.69725195696774</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6.841314998510879</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.2149030906900975</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>27.24907939159501</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5.028065101479352</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.1528119226433702</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>27.50800444497764</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6.36632843580019</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5131957040037251</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>27.59307140998202</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7.406255992677163</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.31071206021734</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>27.62182237090444</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.482732077723414</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1769950705951293</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>27.76689709837802</v>
+      </c>
+      <c r="C67" t="n">
+        <v>10.07630008584946</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.4312151662821392</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>27.93494449075667</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.535850530456562</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.2382846589029922</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>28.45138983769575</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7.658582376029779</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.348226517538568</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>29.33330621544852</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6.310623444969512</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.3815993051380879</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>29.96498391767587</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6.015897166384625</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5025725588187604</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>30.56284701882025</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5.278046747792283</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.407170765146934</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>30.90285463871916</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7.482227174289887</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.2910480072095993</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>31.25844732264261</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8.5779241647472</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.4940282990926935</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>31.3909003041064</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8.453175975719018</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.1893665345664408</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>31.47432652419889</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6.776529536443229</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.5573751342736259</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>32.85282510822636</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.729404661568498</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.1593387931270561</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>33.28904192141166</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8.58631450846995</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.3271517687288295</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>35.27614273169457</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.759785612098522</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.2986598761623412</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>35.79472743645373</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.962673720439031</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.3856339357434671</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>36.87531383386789</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.134344139959196</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.2637620825091668</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>37.31689297772758</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9.15555203958702</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6372835765023055</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>37.36467261423856</v>
+      </c>
+      <c r="C83" t="n">
+        <v>7.658909480387418</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.2723155196010947</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>37.62490894201535</v>
+      </c>
+      <c r="C84" t="n">
+        <v>7.899058860752215</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.599313637036609</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>38.25108599636985</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8.328763621244759</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.3335221130143148</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>38.84188608359602</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5.407824761740494</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.1568904588807419</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>38.9778506786983</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.547361991485524</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.6040245202668959</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>39.35979569823706</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6.538373958351849</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.5207122816643573</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>39.70580524057838</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.010445035591939</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.1909656992182809</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>40.5841723592894</v>
+      </c>
+      <c r="C90" t="n">
+        <v>7.939458665873245</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.2870794408005352</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>40.68022422385601</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.530431255339897</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1817988034334337</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>41.08755311101235</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7.922381307931866</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.4743096262243137</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>41.46754028600355</v>
+      </c>
+      <c r="C93" t="n">
+        <v>8.855113623379889</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.3441523290207202</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>43.0470367157093</v>
+      </c>
+      <c r="C94" t="n">
+        <v>8.634912667160672</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.3107124705071183</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>44.8608351413768</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.628387634522535</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.2539756678845382</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>45.05736685731588</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5.785573563059271</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.4562753907131252</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>45.11087211309709</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.476079934181806</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.1595454563295785</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>45.30998209236234</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.202577805355393</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.1881637191008809</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>46.44609640033656</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.308819653475719</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.2480203210345289</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>46.59076871889772</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.663349366636917</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.2018476075290743</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>47.3270814353351</v>
+      </c>
+      <c r="C101" t="n">
+        <v>7.863508618904613</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.2914057930863425</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>47.67226246758391</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4.405907167402839</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.4155557740100491</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>47.70244448219523</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7.387871986073644</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.4453968821585902</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>47.81728733889251</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3.063752281781442</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.1626198825430517</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>48.28304713820903</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5.257417922899482</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.09211688740544258</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>48.73885724476806</v>
+      </c>
+      <c r="C106" t="n">
+        <v>7.044628528747848</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.2355171226345536</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>49.15001607674281</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.292331936619232</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.3273775901723361</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>49.16681008360293</v>
+      </c>
+      <c r="C108" t="n">
+        <v>8.05741733061345</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.4006883053644131</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>51.20832726592888</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.416570453678748</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.08467852884499175</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>52.1139057622002</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.018681398220393</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.2007625421957844</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>52.1966477447348</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.340057035963353</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.4932079636044429</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>52.40820600056789</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3.076924755002951</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.2424372149113014</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>52.68135587826268</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5.559592287843797</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.3851737424482866</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>52.96648611736322</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.75158965944205</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.1815592760585209</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>53.30455081759563</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.668817490824858</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.3528740735029991</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>53.42881938369467</v>
+      </c>
+      <c r="C116" t="n">
+        <v>8.448310980505521</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.5135018541679258</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>53.71865299693557</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.369859387792467</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.2435363249790699</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>54.00182913758695</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.74290128589395</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.5307643717246121</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>54.34019413518466</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.784389974287506</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.348514975388166</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>54.37850241655033</v>
+      </c>
+      <c r="C120" t="n">
+        <v>8.896102826276179</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.352671221285434</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>54.50711961837125</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11.8250182614996</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.2930412691526071</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>54.61224205561986</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.211917301580433</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.1938036748817754</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>55.13708562954838</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.493069347725092</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.4172606528706419</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>55.34774430218022</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.346594807147401</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.2697924662230757</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>56.20057462181046</v>
+      </c>
+      <c r="C125" t="n">
+        <v>8.111467589112015</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.2564557014739499</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>56.23630881050377</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.582165977726636</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.2877030248680791</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>57.00783360834468</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.737936189452984</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.302770997980167</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>57.33330719684093</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7.824893091571363</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.3918334476083901</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>59.24466705148799</v>
+      </c>
+      <c r="C129" t="n">
+        <v>8.774459656895239</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.4810381264397451</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>59.96694321804475</v>
+      </c>
+      <c r="C130" t="n">
+        <v>8.365842200510164</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.6744088621728204</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>60.71892749669356</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.912604638152736</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.3041088916427298</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>60.90741941829799</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.838315589889308</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1668676010673954</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>62.00466021313373</v>
+      </c>
+      <c r="C133" t="n">
+        <v>11.60001736719811</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.4519519890180932</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>62.06543212538983</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.02116989790513</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.1759602706204025</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>64.58824795428293</v>
+      </c>
+      <c r="C135" t="n">
+        <v>8.930326948982701</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.4675434831434713</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>65.06293381209196</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.020440883253363</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.2023579278680898</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>65.20881676882959</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5.704043914861924</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.5199817555950921</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>65.53441951230481</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3.056087233623433</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.09065422377657067</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>65.65875702126472</v>
+      </c>
+      <c r="C139" t="n">
+        <v>7.575023577953981</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.2411176385403997</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>66.51698049858329</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5.957581014135233</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.1852535477458772</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>68.69525290616362</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.454697850226765</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.285224553784353</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>69.18011611445166</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.049270587065097</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.2220953667449959</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>69.77088076911024</v>
+      </c>
+      <c r="C143" t="n">
+        <v>9.000871644225862</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.311006092014975</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>69.88712895021604</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.618043515537621</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.3150478618340488</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>69.91288808001181</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.449757173039157</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.1763115757843095</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>70.54352255227612</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.622185136990412</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.5553336562008196</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>71.06482087803774</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.831223252780511</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.3329030972838187</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>71.09762896000744</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.236492820558977</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0821245004120834</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>71.24765402364621</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7.616209206937963</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.2875701746540591</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>72.01474829189381</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.317519666206136</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.3966796453962941</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>72.18066158487881</v>
+      </c>
+      <c r="C151" t="n">
+        <v>8.182376788992858</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.2752694430577958</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>72.51065641006531</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9.199774929562517</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.2707914441937036</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>73.82476563383737</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9.046203362783535</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.3185448524253387</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>73.93989346475688</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.051611612040538</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.2927523651072018</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>74.03273319043917</v>
+      </c>
+      <c r="C155" t="n">
+        <v>5.468469292129119</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.3830191961136933</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>75.5578343193726</v>
+      </c>
+      <c r="C156" t="n">
+        <v>8.077041596718594</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.1971367932731282</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>77.04870683106468</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.922702318306101</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.1801174962849478</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>77.36894000110756</v>
+      </c>
+      <c r="C158" t="n">
+        <v>7.351734931048115</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.4451595775487172</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>77.71889302209281</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4.36313928869864</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.2026330303733624</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>77.82480529344186</v>
+      </c>
+      <c r="C160" t="n">
+        <v>8.880616255047917</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.3047114404117748</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>78.60841666297524</v>
+      </c>
+      <c r="C161" t="n">
+        <v>9.120946470187251</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.416509738890005</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>79.24421854632706</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.839506162258397</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.2965203416070826</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>80.36349055693569</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.741077934722206</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.1631661012319592</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>80.44129167320935</v>
+      </c>
+      <c r="C164" t="n">
+        <v>7.371612491512245</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.4345152428336568</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>80.73445779550917</v>
+      </c>
+      <c r="C165" t="n">
+        <v>8.217893339983135</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.4240084695900999</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>81.56227751599741</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7.826040760128331</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3488211511251521</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>82.2454071182393</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9.754522031950984</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.4881397288784204</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>83.95650899305573</v>
+      </c>
+      <c r="C168" t="n">
+        <v>8.362542276414128</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.4728668697283306</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>84.10518538026975</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9.151887538680629</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.4009940013577097</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>84.6644654984849</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.753474035640602</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1579526738971127</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>85.58959914799269</v>
+      </c>
+      <c r="C171" t="n">
+        <v>8.481940024443254</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.3610508401967446</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>85.70013562207934</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.486412809101869</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.2691446442615921</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>85.7096842345296</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8.65955384301254</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.3909729003099511</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>88.17472936613298</v>
+      </c>
+      <c r="C174" t="n">
+        <v>7.199952988115801</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.3818825894389633</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>89.23888270116763</v>
+      </c>
+      <c r="C175" t="n">
+        <v>10.24828340798101</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.4104542826789527</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>89.3967675398943</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.688278749496484</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.09521638086622947</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>90.22995529829944</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9.257505956622465</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4139265619137859</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>90.75978291036445</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.430785830461319</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.2121535256603678</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>91.66851760502409</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.949147415813414</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.2322231785013452</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>92.75924197499299</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.210189984985343</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.2149836962810628</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>92.88083904566614</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.558297834120946</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.2986415469665256</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>94.26148439375596</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.019473689218847</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.2589476724449138</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>95.17688492060121</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.093309207499435</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.218457341459507</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>95.83548278622808</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.628435679107316</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.06823892690629632</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>95.93141840212932</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9.212066815779284</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.4903289570619774</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>95.97888892407074</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3.148812356465235</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.2373523903699959</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>97.54860664910663</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.87046875548471</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.3610516662061608</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>97.61357602598646</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.518384244846872</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.2801264603315962</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>97.69294460422472</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.46981930849883</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.1660679880708941</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>97.8792947417803</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.067168176258244</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.1882253481649674</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>98.26009039953956</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7.278239780217395</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.1551042656225987</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>99.68644091502851</v>
+      </c>
+      <c r="C192" t="n">
+        <v>7.31879134809857</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.2370925713226556</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>99.86434039075134</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.288658772061537</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.3786566462325945</v>
       </c>
     </row>
   </sheetData>
